--- a/Tidsskema.xlsx
+++ b/Tidsskema.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\HTX\DDU faget\DDU projekt\DDU_Kanon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\HTX\DDU faget\DDU projekt\DDU_Kanon\KanonFedt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F03F722-4A6C-406E-A37D-F99EEFA97F14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBA59DB-BB45-460D-AC5C-9C1B0F1E1429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BA27B1A6-A674-43C3-BE55-811ECBF700FD}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,6 +480,9 @@
       <c r="B4">
         <v>45</v>
       </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
